--- a/Greyform/Python_Application/exporteddatas.xlsx
+++ b/Greyform/Python_Application/exporteddatas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://winsystechnology-my.sharepoint.com/personal/zhizhuan_mok_winsys_com_sg/Documents/Desktop/Greyform/Python_Application/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_1A2BC2E973E12EAB59CB33D664B3ADD6A14DF840" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07E5B9FF-B370-40FB-AA54-AE58D4D1858F}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_1A2BC2E973E12EAB59CB33D664B3ADD6A14DF840" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F4E06CD-675A-4921-9248-C7C032134472}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11835" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IfcFlowSegment" sheetId="1" r:id="rId1"/>
@@ -1594,6 +1594,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3662,6 +3666,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">

--- a/Greyform/Python_Application/exporteddatas.xlsx
+++ b/Greyform/Python_Application/exporteddatas.xlsx
@@ -2014,7 +2014,7 @@
         <v>3968</v>
       </c>
       <c r="M3">
-        <v>1440</v>
+        <v>1935</v>
       </c>
       <c r="O3">
         <v>114.4</v>
@@ -2058,7 +2058,7 @@
         <v>1500</v>
       </c>
       <c r="O4">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -2096,7 +2096,7 @@
         <v>3968</v>
       </c>
       <c r="M5">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O5">
         <v>20</v>
@@ -2137,7 +2137,7 @@
         <v>3968</v>
       </c>
       <c r="M6">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O6">
         <v>20</v>
@@ -2178,7 +2178,7 @@
         <v>3968</v>
       </c>
       <c r="M7">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O7">
         <v>20</v>
@@ -2219,7 +2219,7 @@
         <v>3968</v>
       </c>
       <c r="M8">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O8">
         <v>20</v>
@@ -2342,7 +2342,7 @@
         <v>3968</v>
       </c>
       <c r="M11">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O11">
         <v>20.4</v>
@@ -2383,7 +2383,7 @@
         <v>3968</v>
       </c>
       <c r="M12">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O12">
         <v>20.4</v>
@@ -2424,7 +2424,7 @@
         <v>3968</v>
       </c>
       <c r="M13">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O13">
         <v>20</v>
@@ -2465,7 +2465,7 @@
         <v>3968</v>
       </c>
       <c r="M14">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O14">
         <v>20</v>
@@ -2506,7 +2506,7 @@
         <v>3968</v>
       </c>
       <c r="M15">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O15">
         <v>20</v>
@@ -2547,7 +2547,7 @@
         <v>3968</v>
       </c>
       <c r="M16">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O16">
         <v>20.4</v>
@@ -2588,7 +2588,7 @@
         <v>3968</v>
       </c>
       <c r="M17">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O17">
         <v>20</v>
@@ -2629,7 +2629,7 @@
         <v>3968</v>
       </c>
       <c r="M18">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O18">
         <v>20</v>
@@ -2752,7 +2752,7 @@
         <v>3968</v>
       </c>
       <c r="M21">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O21">
         <v>25</v>
@@ -2793,7 +2793,7 @@
         <v>3968</v>
       </c>
       <c r="M22">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O22">
         <v>25</v>
@@ -2834,7 +2834,7 @@
         <v>3968</v>
       </c>
       <c r="M23">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O23">
         <v>25</v>
@@ -2875,7 +2875,7 @@
         <v>3968</v>
       </c>
       <c r="M24">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O24">
         <v>25</v>
@@ -2916,7 +2916,7 @@
         <v>3968</v>
       </c>
       <c r="M25">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O25">
         <v>25</v>
@@ -2957,7 +2957,7 @@
         <v>3968</v>
       </c>
       <c r="M26">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O26">
         <v>25</v>
@@ -2998,7 +2998,7 @@
         <v>3968</v>
       </c>
       <c r="M27">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O27">
         <v>20</v>
@@ -3080,7 +3080,7 @@
         <v>3968</v>
       </c>
       <c r="M29">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O29">
         <v>20</v>
@@ -3121,7 +3121,7 @@
         <v>3968</v>
       </c>
       <c r="M30">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O30">
         <v>20</v>
@@ -3162,7 +3162,7 @@
         <v>3968</v>
       </c>
       <c r="M31">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O31">
         <v>20</v>
@@ -3203,7 +3203,7 @@
         <v>3968</v>
       </c>
       <c r="M32">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O32">
         <v>25</v>
@@ -3244,7 +3244,7 @@
         <v>3968</v>
       </c>
       <c r="M33">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O33">
         <v>20</v>
@@ -3285,7 +3285,7 @@
         <v>3968</v>
       </c>
       <c r="M34">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O34">
         <v>20</v>
@@ -3370,7 +3370,7 @@
         <v>1500</v>
       </c>
       <c r="O36">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -3411,7 +3411,7 @@
         <v>1500</v>
       </c>
       <c r="O37">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -3452,7 +3452,7 @@
         <v>1500</v>
       </c>
       <c r="O38">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -3493,7 +3493,7 @@
         <v>1500</v>
       </c>
       <c r="O39">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -3613,7 +3613,7 @@
         <v>3968</v>
       </c>
       <c r="M42">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O42">
         <v>25</v>
@@ -3654,7 +3654,7 @@
         <v>3968</v>
       </c>
       <c r="M43">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O43">
         <v>25</v>
@@ -3736,7 +3736,7 @@
         <v>3968</v>
       </c>
       <c r="M45">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O45">
         <v>25</v>
@@ -3777,7 +3777,7 @@
         <v>3968</v>
       </c>
       <c r="M46">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O46">
         <v>20</v>
@@ -3900,7 +3900,7 @@
         <v>3968</v>
       </c>
       <c r="M49">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O49">
         <v>25</v>
@@ -3941,7 +3941,7 @@
         <v>3968</v>
       </c>
       <c r="M50">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O50">
         <v>20</v>
@@ -3982,7 +3982,7 @@
         <v>3968</v>
       </c>
       <c r="M51">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O51">
         <v>20</v>
@@ -4105,7 +4105,7 @@
         <v>3968</v>
       </c>
       <c r="M54">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O54">
         <v>20</v>
@@ -4187,7 +4187,7 @@
         <v>3968</v>
       </c>
       <c r="M56">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O56">
         <v>20</v>
@@ -4285,7 +4285,7 @@
         <v>3968</v>
       </c>
       <c r="M2">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
   </sheetData>
@@ -6470,7 +6470,7 @@
         <v>3968</v>
       </c>
       <c r="M52">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
   </sheetData>
@@ -6641,7 +6641,7 @@
         <v>3968</v>
       </c>
       <c r="M4">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -6679,7 +6679,7 @@
         <v>3968</v>
       </c>
       <c r="M5">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -6755,7 +6755,7 @@
         <v>3968</v>
       </c>
       <c r="M7">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -6907,7 +6907,7 @@
         <v>3968</v>
       </c>
       <c r="M11">
-        <v>1440</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -6945,7 +6945,7 @@
         <v>3968</v>
       </c>
       <c r="M12">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -6983,7 +6983,7 @@
         <v>3968</v>
       </c>
       <c r="M13">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -7325,7 +7325,7 @@
         <v>3968</v>
       </c>
       <c r="M22">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -7363,7 +7363,7 @@
         <v>3968</v>
       </c>
       <c r="M23">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -7401,7 +7401,7 @@
         <v>3968</v>
       </c>
       <c r="M24">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -7439,7 +7439,7 @@
         <v>3968</v>
       </c>
       <c r="M25">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -7477,7 +7477,7 @@
         <v>3968</v>
       </c>
       <c r="M26">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -7515,7 +7515,7 @@
         <v>3968</v>
       </c>
       <c r="M27">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -7553,7 +7553,7 @@
         <v>3968</v>
       </c>
       <c r="M28">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -7591,7 +7591,7 @@
         <v>3968</v>
       </c>
       <c r="M29">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -7629,7 +7629,7 @@
         <v>3968</v>
       </c>
       <c r="M30">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -7667,7 +7667,7 @@
         <v>3968</v>
       </c>
       <c r="M31">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -7705,7 +7705,7 @@
         <v>3968</v>
       </c>
       <c r="M32">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -7743,7 +7743,7 @@
         <v>3968</v>
       </c>
       <c r="M33">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -7781,7 +7781,7 @@
         <v>3968</v>
       </c>
       <c r="M34">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -7819,7 +7819,7 @@
         <v>3968</v>
       </c>
       <c r="M35">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -7857,7 +7857,7 @@
         <v>3968</v>
       </c>
       <c r="M36">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -8047,7 +8047,7 @@
         <v>3968</v>
       </c>
       <c r="M41">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -8085,7 +8085,7 @@
         <v>3968</v>
       </c>
       <c r="M42">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -8123,7 +8123,7 @@
         <v>3968</v>
       </c>
       <c r="M43">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -8161,7 +8161,7 @@
         <v>3968</v>
       </c>
       <c r="M44">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -8199,7 +8199,7 @@
         <v>3968</v>
       </c>
       <c r="M45">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -8237,7 +8237,7 @@
         <v>3968</v>
       </c>
       <c r="M46">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -8275,7 +8275,7 @@
         <v>3968</v>
       </c>
       <c r="M47">
-        <v>1440</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -8313,7 +8313,7 @@
         <v>3968</v>
       </c>
       <c r="M48">
-        <v>1440</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -8351,7 +8351,7 @@
         <v>3968</v>
       </c>
       <c r="M49">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -8389,7 +8389,7 @@
         <v>3968</v>
       </c>
       <c r="M50">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -8427,7 +8427,7 @@
         <v>3968</v>
       </c>
       <c r="M51">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -8465,7 +8465,7 @@
         <v>3968</v>
       </c>
       <c r="M52">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -8503,7 +8503,7 @@
         <v>3968</v>
       </c>
       <c r="M53">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -8541,7 +8541,7 @@
         <v>3968</v>
       </c>
       <c r="M54">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -8579,7 +8579,7 @@
         <v>3968</v>
       </c>
       <c r="M55">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -8617,7 +8617,7 @@
         <v>3968</v>
       </c>
       <c r="M56">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -8655,7 +8655,7 @@
         <v>3968</v>
       </c>
       <c r="M57">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -8693,7 +8693,7 @@
         <v>3968</v>
       </c>
       <c r="M58">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -8731,7 +8731,7 @@
         <v>3968</v>
       </c>
       <c r="M59">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -8769,7 +8769,7 @@
         <v>3968</v>
       </c>
       <c r="M60">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -8807,7 +8807,7 @@
         <v>3968</v>
       </c>
       <c r="M61">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -8845,7 +8845,7 @@
         <v>3968</v>
       </c>
       <c r="M62">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -8883,7 +8883,7 @@
         <v>3968</v>
       </c>
       <c r="M63">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -8921,7 +8921,7 @@
         <v>3968</v>
       </c>
       <c r="M64">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -8959,7 +8959,7 @@
         <v>3968</v>
       </c>
       <c r="M65">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -9415,7 +9415,7 @@
         <v>3968</v>
       </c>
       <c r="M77">
-        <v>2835</v>
+        <v>900</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -9453,7 +9453,7 @@
         <v>3968</v>
       </c>
       <c r="M78">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -9491,7 +9491,7 @@
         <v>3968</v>
       </c>
       <c r="M79">
-        <v>1440</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -9529,7 +9529,7 @@
         <v>3968</v>
       </c>
       <c r="M80">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -10213,7 +10213,7 @@
         <v>3968</v>
       </c>
       <c r="M98">
-        <v>2835</v>
+        <v>900</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -10251,7 +10251,7 @@
         <v>3968</v>
       </c>
       <c r="M99">
-        <v>2835</v>
+        <v>900</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -10289,7 +10289,7 @@
         <v>3968</v>
       </c>
       <c r="M100">
-        <v>2835</v>
+        <v>900</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -10327,7 +10327,7 @@
         <v>3968</v>
       </c>
       <c r="M101">
-        <v>2835</v>
+        <v>900</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -10365,7 +10365,7 @@
         <v>3968</v>
       </c>
       <c r="M102">
-        <v>2835</v>
+        <v>900</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -10403,7 +10403,7 @@
         <v>3968</v>
       </c>
       <c r="M103">
-        <v>2835</v>
+        <v>900</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -10441,7 +10441,7 @@
         <v>3968</v>
       </c>
       <c r="M104">
-        <v>2835</v>
+        <v>900</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -10479,7 +10479,7 @@
         <v>3968</v>
       </c>
       <c r="M105">
-        <v>2835</v>
+        <v>900</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -10745,7 +10745,7 @@
         <v>3968</v>
       </c>
       <c r="M112">
-        <v>1440</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -10783,7 +10783,7 @@
         <v>3968</v>
       </c>
       <c r="M113">
-        <v>1440</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -10821,7 +10821,7 @@
         <v>3968</v>
       </c>
       <c r="M114">
-        <v>1440</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -10859,7 +10859,7 @@
         <v>3968</v>
       </c>
       <c r="M115">
-        <v>1440</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -10897,7 +10897,7 @@
         <v>3968</v>
       </c>
       <c r="M116">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -10935,7 +10935,7 @@
         <v>3968</v>
       </c>
       <c r="M117">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -10973,7 +10973,7 @@
         <v>3968</v>
       </c>
       <c r="M118">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -11011,7 +11011,7 @@
         <v>3968</v>
       </c>
       <c r="M119">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -11049,7 +11049,7 @@
         <v>3968</v>
       </c>
       <c r="M120">
-        <v>1440</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -11087,7 +11087,7 @@
         <v>3968</v>
       </c>
       <c r="M121">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -11125,7 +11125,7 @@
         <v>3968</v>
       </c>
       <c r="M122">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -11163,7 +11163,7 @@
         <v>3968</v>
       </c>
       <c r="M123">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -13722,7 +13722,7 @@
         <v>3968</v>
       </c>
       <c r="M2">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
   </sheetData>
@@ -13855,7 +13855,7 @@
         <v>3968</v>
       </c>
       <c r="M3">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -13893,7 +13893,7 @@
         <v>3968</v>
       </c>
       <c r="M4">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="5" spans="1:15">
